--- a/biology/Histoire de la zoologie et de la botanique/Pithèque/Pithèque.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pithèque/Pithèque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pith%C3%A8que</t>
+          <t>Pithèque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 pithèque, sur le Wiktionnaire
-Pithèque est un terme savant désuet qui a longtemps désigné une ou plusieurs espèces de singes plus ou moins imaginaires. Construit à partir du terme grec πιθηκος (« singe »), il évoque surtout la description d'Aristote dans Histoire des animaux (Aristote) qui décrit ces animaux comme proches de l'homme et dépourvus de queue[1],[2].
+Pithèque est un terme savant désuet qui a longtemps désigné une ou plusieurs espèces de singes plus ou moins imaginaires. Construit à partir du terme grec πιθηκος (« singe »), il évoque surtout la description d'Aristote dans Histoire des animaux (Aristote) qui décrit ces animaux comme proches de l'homme et dépourvus de queue,.
 Le comte de Buffon s'inspire de ce témoignage pour décrire le « Pithèque », bipède en partie imaginaire qu'il est difficile de rapprocher d'une espèce réelle ;
 Carl von Linné et ses successeurs lui attribue un nom scientifique : Simia sylvanus. Ce nom deviendra le protonyme de Macaca sylvanus, le magot (Simia inuus selon Linné) ;
 Étienne Geoffroy Saint-Hilaire crée en 1812 le genre Pithecus (les « orangs ») qui regroupe l'orang-outan (Pithecus satyrus), le gibbon (Pithecus lar), l'orang varié[Note 1] (Pithecus variegatus) et le wouwou[Note 2] (Pithecus leuciscus). Ce genre est supprimé en 1929 par la Commission internationale de nomenclature zoologique en même temps que le genre Simia et l'espèce Simia satyrus, en raison de la confusion qu'ils entrainent.
